--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -37,7 +37,7 @@
     <t>Testing@1357</t>
   </si>
   <si>
-    <t>Automation</t>
+    <t>java</t>
   </si>
 </sst>
 </file>
